--- a/excercises/excercises/50.MF_pipe.xlsx
+++ b/excercises/excercises/50.MF_pipe.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
-  <workbookPr updateLinks="always" codeName="Workbook________" hidePivotFieldList="1"/>
+  <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8B5704-F35F-41D3-9607-8BEAC5157B25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82D5920-6225-4A19-81EC-0BD6C6BEB32D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18000" windowHeight="9360" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MF 1 " sheetId="118" r:id="rId1"/>
@@ -49,7 +49,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -794,7 +793,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1330,7 +1329,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1368,7 +1367,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="251715584"/>
@@ -1447,7 +1446,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1485,7 +1484,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="217505088"/>
@@ -1527,7 +1526,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1557,7 +1556,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2624,29 +2623,29 @@
   </sheetPr>
   <dimension ref="A1:AB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.265625" customWidth="1"/>
-    <col min="3" max="3" width="12.265625" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" customWidth="1"/>
-    <col min="5" max="5" width="11.265625" customWidth="1"/>
-    <col min="6" max="6" width="9.86328125" customWidth="1"/>
-    <col min="7" max="7" width="10.265625" customWidth="1"/>
-    <col min="8" max="8" width="12.265625" customWidth="1"/>
-    <col min="10" max="10" width="13.86328125" customWidth="1"/>
-    <col min="11" max="11" width="11.265625" customWidth="1"/>
-    <col min="12" max="13" width="10.1328125" customWidth="1"/>
-    <col min="23" max="26" width="9.1328125" customWidth="1"/>
-    <col min="27" max="27" width="5.86328125" customWidth="1"/>
-    <col min="28" max="28" width="9.1328125" hidden="1" customWidth="1"/>
-    <col min="29" max="33" width="9.1328125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="13" width="10.140625" customWidth="1"/>
+    <col min="23" max="26" width="9.140625" customWidth="1"/>
+    <col min="27" max="27" width="5.85546875" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="29" max="33" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2658,17 +2657,17 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
@@ -2684,7 +2683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
@@ -2700,7 +2699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
@@ -2716,7 +2715,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
@@ -2734,7 +2733,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
@@ -2752,7 +2751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
@@ -2770,7 +2769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
@@ -2788,7 +2787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12" t="s">
         <v>20</v>
       </c>
@@ -2799,7 +2798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
         <v>21</v>
       </c>
@@ -2810,12 +2809,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
         <v>22</v>
       </c>
@@ -2826,7 +2825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
         <v>26</v>
       </c>
@@ -2837,13 +2836,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
         <v>29</v>
       </c>
@@ -2854,7 +2853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>0</v>
       </c>
@@ -2865,7 +2864,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>30</v>
       </c>
@@ -2876,7 +2875,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
         <v>34</v>
       </c>
@@ -2887,7 +2886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>35</v>
       </c>
@@ -2898,7 +2897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>36</v>
       </c>
@@ -2909,7 +2908,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>37</v>
       </c>
@@ -2920,7 +2919,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B28" s="15" t="s">
         <v>9</v>
       </c>
@@ -2946,9 +2945,9 @@
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
     </row>
-    <row r="29" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:20" ht="32.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:20" ht="32.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C31" s="14" t="s">
         <v>29</v>
       </c>
@@ -2968,7 +2967,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17">
         <v>1</v>
       </c>
@@ -2994,7 +2993,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17">
         <v>2</v>
       </c>
@@ -3020,7 +3019,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17">
         <v>3</v>
       </c>
@@ -3046,7 +3045,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17">
         <v>4</v>
       </c>
@@ -3072,7 +3071,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17">
         <v>5</v>
       </c>
@@ -3098,7 +3097,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17">
         <v>6</v>
       </c>
@@ -3124,7 +3123,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17">
         <v>7</v>
       </c>
@@ -3150,7 +3149,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17">
         <v>8</v>
       </c>
@@ -3176,7 +3175,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17">
         <v>9</v>
       </c>
@@ -3202,7 +3201,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17">
         <v>10</v>
       </c>
@@ -3228,7 +3227,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17">
         <v>11</v>
       </c>
@@ -3254,7 +3253,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17">
         <v>12</v>
       </c>
@@ -3280,7 +3279,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <v>13</v>
       </c>
@@ -3306,7 +3305,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17">
         <v>14</v>
       </c>
@@ -3332,7 +3331,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17">
         <v>15</v>
       </c>
@@ -3358,7 +3357,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17">
         <v>16</v>
       </c>
@@ -3384,7 +3383,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17">
         <v>17</v>
       </c>
@@ -3410,7 +3409,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17">
         <v>18</v>
       </c>
@@ -3436,7 +3435,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17">
         <v>19</v>
       </c>
@@ -3462,7 +3461,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17">
         <v>20</v>
       </c>
@@ -3488,7 +3487,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17">
         <v>21</v>
       </c>
@@ -3514,7 +3513,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17">
         <v>22</v>
       </c>
@@ -3540,7 +3539,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17">
         <v>23</v>
       </c>
@@ -3566,7 +3565,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17">
         <v>24</v>
       </c>
@@ -3592,7 +3591,7 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17">
         <v>25</v>
       </c>
@@ -3618,7 +3617,7 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17">
         <v>26</v>
       </c>
@@ -3645,7 +3644,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excercises/excercises/50.MF_pipe.xlsx
+++ b/excercises/excercises/50.MF_pipe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82D5920-6225-4A19-81EC-0BD6C6BEB32D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CC47F4-FBB8-4060-B65F-16086261F0FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18000" windowHeight="9360" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13605" yWindow="2670" windowWidth="21930" windowHeight="17160" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MF 1 " sheetId="118" r:id="rId1"/>
@@ -49,6 +49,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2623,8 +2624,8 @@
   </sheetPr>
   <dimension ref="A1:AB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2654,7 +2655,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2925,7 +2926,7 @@
       </c>
       <c r="C28" s="16" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>

--- a/excercises/excercises/50.MF_pipe.xlsx
+++ b/excercises/excercises/50.MF_pipe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CC47F4-FBB8-4060-B65F-16086261F0FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E9B9C1-1007-4015-A959-4D1AF2CB39B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13605" yWindow="2670" windowWidth="21930" windowHeight="17160" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MF 1 " sheetId="118" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <definedName name="gamma_gas_" localSheetId="0">'MF 1 '!$C$9</definedName>
     <definedName name="gamma_oil_" localSheetId="0">'MF 1 '!$C$7</definedName>
     <definedName name="gamma_wat_" localSheetId="0">'MF 1 '!$C$8</definedName>
+    <definedName name="Hydr_corr_">'MF 1 '!$H$20</definedName>
     <definedName name="id_">'MF 1 '!$C$21</definedName>
     <definedName name="L_">'MF 1 '!$C$20</definedName>
     <definedName name="l0_">'MF 1 '!$C$32</definedName>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -413,6 +414,12 @@
   </si>
   <si>
     <t>T2</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Корреляция</t>
   </si>
 </sst>
 </file>
@@ -646,7 +653,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -695,6 +702,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -852,79 +862,79 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>88</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>96</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>104</c:v>
+                  <c:v>1040</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>112</c:v>
+                  <c:v>1120</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>120</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>128</c:v>
+                  <c:v>1280</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>136</c:v>
+                  <c:v>1360</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>144</c:v>
+                  <c:v>1440</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>152</c:v>
+                  <c:v>1520</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>160</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>168</c:v>
+                  <c:v>1680</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>176</c:v>
+                  <c:v>1760</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>184</c:v>
+                  <c:v>1840</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>192</c:v>
+                  <c:v>1920</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>200</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -939,79 +949,79 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.389230296870149</c:v>
+                  <c:v>34.262310185283091</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.780491119381463</c:v>
+                  <c:v>38.775736307509277</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.173767679396214</c:v>
+                  <c:v>43.57163402380889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.569045141737572</c:v>
+                  <c:v>48.618728194166565</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.966308628201116</c:v>
+                  <c:v>53.86925446428738</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.365543221500594</c:v>
+                  <c:v>59.289030277238687</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.766733969155752</c:v>
+                  <c:v>64.849628389999054</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.169865887310252</c:v>
+                  <c:v>70.527210015451487</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.574923964489365</c:v>
+                  <c:v>76.306572318863488</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.981893165292888</c:v>
+                  <c:v>82.258404106515229</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.390758434024285</c:v>
+                  <c:v>88.400300887103199</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.801504698255421</c:v>
+                  <c:v>94.71846602686864</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.214116872315209</c:v>
+                  <c:v>101.20044863612553</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35.628579860740345</c:v>
+                  <c:v>107.77982242051218</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36.044878561661015</c:v>
+                  <c:v>114.36031088095525</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36.462997870084479</c:v>
+                  <c:v>120.93876831770481</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36.882922681148962</c:v>
+                  <c:v>127.51480053516036</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37.304637893304026</c:v>
+                  <c:v>134.08807150349355</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>37.728128411426916</c:v>
+                  <c:v>140.6582923244637</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38.153379149874759</c:v>
+                  <c:v>147.22521269844441</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>38.580375035472834</c:v>
+                  <c:v>153.78861424206391</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39.009101010438719</c:v>
+                  <c:v>160.34830519509865</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>39.439542035242759</c:v>
+                  <c:v>166.90411618439927</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>39.871683091404769</c:v>
+                  <c:v>173.45589680110075</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>40.305509184227148</c:v>
+                  <c:v>180.00351281101069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1071,79 +1081,79 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>88</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>96</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>104</c:v>
+                  <c:v>1040</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>112</c:v>
+                  <c:v>1120</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>120</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>128</c:v>
+                  <c:v>1280</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>136</c:v>
+                  <c:v>1360</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>144</c:v>
+                  <c:v>1440</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>152</c:v>
+                  <c:v>1520</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>160</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>168</c:v>
+                  <c:v>1680</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>176</c:v>
+                  <c:v>1760</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>184</c:v>
+                  <c:v>1840</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>192</c:v>
+                  <c:v>1920</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>200</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1155,82 +1165,82 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>29.513475830882868</c:v>
+                  <c:v>29.999065866311906</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.908881473819285</c:v>
+                  <c:v>34.259406951170462</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.306416922060688</c:v>
+                  <c:v>38.775521091032331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.706066026276812</c:v>
+                  <c:v>43.569518258699148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.107812580952139</c:v>
+                  <c:v>48.619352813761793</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.511640329141507</c:v>
+                  <c:v>53.868932593215995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.917532967153505</c:v>
+                  <c:v>59.284481794013153</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.325474149161337</c:v>
+                  <c:v>64.849347529621284</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.735447491740771</c:v>
+                  <c:v>70.52463436472091</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.147436578334826</c:v>
+                  <c:v>76.306781666013563</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.561424963644917</c:v>
+                  <c:v>82.258442872925727</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33.977396177948087</c:v>
+                  <c:v>88.394991186929218</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.395333731340052</c:v>
+                  <c:v>94.718545157823741</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.815221117903782</c:v>
+                  <c:v>101.19776895970331</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35.237041819803338</c:v>
+                  <c:v>107.77982241936763</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.660779311302726</c:v>
+                  <c:v>114.36031088016522</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36.0864170627096</c:v>
+                  <c:v>120.93876831705957</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36.51393854424358</c:v>
+                  <c:v>127.51480053470623</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>36.943327229829002</c:v>
+                  <c:v>134.08807150317423</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>37.374566600812109</c:v>
+                  <c:v>140.65829232423621</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>37.807640149602385</c:v>
+                  <c:v>147.22521269829397</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>38.242531383238109</c:v>
+                  <c:v>153.78861424194838</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>38.679223826876097</c:v>
+                  <c:v>160.34830519503925</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>39.117701027205506</c:v>
+                  <c:v>166.90411618436983</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>39.55794655578584</c:v>
+                  <c:v>173.45589680108833</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>40</c:v>
+                  <c:v>180.00351281101069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2624,8 +2634,8 @@
   </sheetPr>
   <dimension ref="A1:AB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2635,7 +2645,7 @@
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
@@ -2655,7 +2665,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2843,15 +2853,21 @@
       </c>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="2">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>31</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -2891,8 +2907,9 @@
       <c r="B24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="2">
-        <v>40</v>
+      <c r="C24" s="20">
+        <f>E57</f>
+        <v>180.00351281101069</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>5</v>
@@ -2926,7 +2943,7 @@
       </c>
       <c r="C28" s="16" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -2952,7 +2969,9 @@
       <c r="C31" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="E31" s="14" t="s">
         <v>35</v>
       </c>
@@ -2975,18 +2994,20 @@
       <c r="C32" s="2">
         <v>0</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>30</v>
+      </c>
       <c r="E32" s="19">
         <f>p0_</f>
         <v>30</v>
       </c>
       <c r="F32" s="19">
-        <f>t0_</f>
-        <v>40</v>
+        <f>D32</f>
+        <v>30</v>
       </c>
       <c r="G32" s="5">
-        <f t="array" ref="G32:H32">[1]!MF_p_pipe_atma(Q_,fw_,C33,C32,G33,PVRstr1_,theta_,id_,,t1_)</f>
-        <v>29.513475830882868</v>
+        <f t="array" ref="G32:H32">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C32,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D32)</f>
+        <v>29.999065866311906</v>
       </c>
       <c r="H32" s="5">
         <v>30</v>
@@ -3000,22 +3021,24 @@
       </c>
       <c r="C33" s="18">
         <f t="shared" ref="C33:C57" si="0">C32+L_/(n_-1)</f>
-        <v>8</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="D33" s="2">
+        <v>32</v>
+      </c>
       <c r="E33" s="5">
-        <f t="array" ref="E33:F33">[1]!MF_p_pipe_atma(Q_,fw_,l0_,C33,p0_,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30.389230296870149</v>
+        <f t="array" ref="E33:F33">[1]!MF_p_pipe_atma(Q_,fw_,C33-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D33)</f>
+        <v>34.262310185283091</v>
       </c>
       <c r="F33" s="5">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G33" s="5">
-        <f t="array" ref="G33:H33">[1]!MF_p_pipe_atma(Q_,fw_,C34,C33,G34,PVRstr1_,theta_,id_,,t1_)</f>
-        <v>29.908881473819285</v>
+        <f t="array" ref="G33:H33">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C33,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D33)</f>
+        <v>34.259406951170462</v>
       </c>
       <c r="H33" s="5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -3026,22 +3049,24 @@
       </c>
       <c r="C34" s="18">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D34" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="D34" s="2">
+        <v>34</v>
+      </c>
       <c r="E34" s="5">
-        <f t="array" ref="E34:F34">[1]!MF_p_pipe_atma(Q_,fw_,l0_,C34,p0_,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30.780491119381463</v>
+        <f t="array" ref="E34:F34">[1]!MF_p_pipe_atma(Q_,fw_,C34-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D34)</f>
+        <v>38.775736307509277</v>
       </c>
       <c r="F34" s="5">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G34" s="5">
-        <f t="array" ref="G34:H34">[1]!MF_p_pipe_atma(Q_,fw_,C35,C34,G35,PVRstr1_,theta_,id_,,t1_)</f>
-        <v>30.306416922060688</v>
+        <f t="array" ref="G34:H34">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C34,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D34)</f>
+        <v>38.775521091032331</v>
       </c>
       <c r="H34" s="5">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -3052,22 +3077,24 @@
       </c>
       <c r="C35" s="18">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="D35" s="2">
+        <v>36</v>
+      </c>
       <c r="E35" s="5">
-        <f t="array" ref="E35:F35">[1]!MF_p_pipe_atma(Q_,fw_,l0_,C35,p0_,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>31.173767679396214</v>
+        <f t="array" ref="E35:F35">[1]!MF_p_pipe_atma(Q_,fw_,C35-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D35)</f>
+        <v>43.57163402380889</v>
       </c>
       <c r="F35" s="5">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G35" s="5">
-        <f t="array" ref="G35:H35">[1]!MF_p_pipe_atma(Q_,fw_,C36,C35,G36,PVRstr1_,theta_,id_,,t1_)</f>
-        <v>30.706066026276812</v>
+        <f t="array" ref="G35:H35">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C35,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D35)</f>
+        <v>43.569518258699148</v>
       </c>
       <c r="H35" s="5">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -3078,22 +3105,24 @@
       </c>
       <c r="C36" s="18">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="D36" s="2">
+        <v>38</v>
+      </c>
       <c r="E36" s="5">
-        <f t="array" ref="E36:F36">[1]!MF_p_pipe_atma(Q_,fw_,l0_,C36,p0_,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>31.569045141737572</v>
+        <f t="array" ref="E36:F36">[1]!MF_p_pipe_atma(Q_,fw_,C36-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D36)</f>
+        <v>48.618728194166565</v>
       </c>
       <c r="F36" s="5">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G36" s="5">
-        <f t="array" ref="G36:H36">[1]!MF_p_pipe_atma(Q_,fw_,C37,C36,G37,PVRstr1_,theta_,id_,,t1_)</f>
-        <v>31.107812580952139</v>
+        <f t="array" ref="G36:H36">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C36,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D36)</f>
+        <v>48.619352813761793</v>
       </c>
       <c r="H36" s="5">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -3104,22 +3133,24 @@
       </c>
       <c r="C37" s="18">
         <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="D37" s="2">
         <v>40</v>
       </c>
-      <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <f t="array" ref="E37:F37">[1]!MF_p_pipe_atma(Q_,fw_,l0_,C37,p0_,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>31.966308628201116</v>
+        <f t="array" ref="E37:F37">[1]!MF_p_pipe_atma(Q_,fw_,C37-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D37)</f>
+        <v>53.86925446428738</v>
       </c>
       <c r="F37" s="5">
         <v>40</v>
       </c>
       <c r="G37" s="5">
-        <f t="array" ref="G37:H37">[1]!MF_p_pipe_atma(Q_,fw_,C38,C37,G38,PVRstr1_,theta_,id_,,t1_)</f>
-        <v>31.511640329141507</v>
+        <f t="array" ref="G37:H37">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C37,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D37)</f>
+        <v>53.868932593215995</v>
       </c>
       <c r="H37" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -3130,22 +3161,24 @@
       </c>
       <c r="C38" s="18">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="D38" s="2">
+        <v>42</v>
+      </c>
       <c r="E38" s="5">
-        <f t="array" ref="E38:F38">[1]!MF_p_pipe_atma(Q_,fw_,l0_,C38,p0_,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>32.365543221500594</v>
+        <f t="array" ref="E38:F38">[1]!MF_p_pipe_atma(Q_,fw_,C38-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D38)</f>
+        <v>59.289030277238687</v>
       </c>
       <c r="F38" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G38" s="5">
-        <f t="array" ref="G38:H38">[1]!MF_p_pipe_atma(Q_,fw_,C39,C38,G39,PVRstr1_,theta_,id_,,t1_)</f>
-        <v>31.917532967153505</v>
+        <f t="array" ref="G38:H38">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C38,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D38)</f>
+        <v>59.284481794013153</v>
       </c>
       <c r="H38" s="5">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -3156,22 +3189,24 @@
       </c>
       <c r="C39" s="18">
         <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="D39" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="D39" s="2">
+        <v>44</v>
+      </c>
       <c r="E39" s="5">
-        <f t="array" ref="E39:F39">[1]!MF_p_pipe_atma(Q_,fw_,l0_,C39,p0_,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>32.766733969155752</v>
+        <f t="array" ref="E39:F39">[1]!MF_p_pipe_atma(Q_,fw_,C39-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D39)</f>
+        <v>64.849628389999054</v>
       </c>
       <c r="F39" s="5">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G39" s="5">
-        <f t="array" ref="G39:H39">[1]!MF_p_pipe_atma(Q_,fw_,C40,C39,G40,PVRstr1_,theta_,id_,,t1_)</f>
-        <v>32.325474149161337</v>
+        <f t="array" ref="G39:H39">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C39,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D39)</f>
+        <v>64.849347529621284</v>
       </c>
       <c r="H39" s="5">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -3182,22 +3217,24 @@
       </c>
       <c r="C40" s="18">
         <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="D40" s="2"/>
+        <v>640</v>
+      </c>
+      <c r="D40" s="2">
+        <v>46</v>
+      </c>
       <c r="E40" s="5">
-        <f t="array" ref="E40:F40">[1]!MF_p_pipe_atma(Q_,fw_,l0_,C40,p0_,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>33.169865887310252</v>
+        <f t="array" ref="E40:F40">[1]!MF_p_pipe_atma(Q_,fw_,C40-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D40)</f>
+        <v>70.527210015451487</v>
       </c>
       <c r="F40" s="5">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G40" s="5">
-        <f t="array" ref="G40:H40">[1]!MF_p_pipe_atma(Q_,fw_,C41,C40,G41,PVRstr1_,theta_,id_,,t1_)</f>
-        <v>32.735447491740771</v>
+        <f t="array" ref="G40:H40">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C40,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D40)</f>
+        <v>70.52463436472091</v>
       </c>
       <c r="H40" s="5">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -3208,22 +3245,24 @@
       </c>
       <c r="C41" s="18">
         <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="D41" s="2"/>
+        <v>720</v>
+      </c>
+      <c r="D41" s="2">
+        <v>48</v>
+      </c>
       <c r="E41" s="5">
-        <f t="array" ref="E41:F41">[1]!MF_p_pipe_atma(Q_,fw_,l0_,C41,p0_,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>33.574923964489365</v>
+        <f t="array" ref="E41:F41">[1]!MF_p_pipe_atma(Q_,fw_,C41-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D41)</f>
+        <v>76.306572318863488</v>
       </c>
       <c r="F41" s="5">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G41" s="5">
-        <f t="array" ref="G41:H41">[1]!MF_p_pipe_atma(Q_,fw_,C42,C41,G42,PVRstr1_,theta_,id_,,t1_)</f>
-        <v>33.147436578334826</v>
+        <f t="array" ref="G41:H41">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C41,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D41)</f>
+        <v>76.306781666013563</v>
       </c>
       <c r="H41" s="5">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -3234,22 +3273,24 @@
       </c>
       <c r="C42" s="18">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D42" s="2"/>
+        <v>800</v>
+      </c>
+      <c r="D42" s="2">
+        <v>50</v>
+      </c>
       <c r="E42" s="5">
-        <f t="array" ref="E42:F42">[1]!MF_p_pipe_atma(Q_,fw_,l0_,C42,p0_,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>33.981893165292888</v>
+        <f t="array" ref="E42:F42">[1]!MF_p_pipe_atma(Q_,fw_,C42-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D42)</f>
+        <v>82.258404106515229</v>
       </c>
       <c r="F42" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G42" s="5">
-        <f t="array" ref="G42:H42">[1]!MF_p_pipe_atma(Q_,fw_,C43,C42,G43,PVRstr1_,theta_,id_,,t1_)</f>
-        <v>33.561424963644917</v>
+        <f t="array" ref="G42:H42">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C42,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D42)</f>
+        <v>82.258442872925727</v>
       </c>
       <c r="H42" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -3260,22 +3301,24 @@
       </c>
       <c r="C43" s="18">
         <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="D43" s="2"/>
+        <v>880</v>
+      </c>
+      <c r="D43" s="2">
+        <v>52</v>
+      </c>
       <c r="E43" s="5">
-        <f t="array" ref="E43:F43">[1]!MF_p_pipe_atma(Q_,fw_,l0_,C43,p0_,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>34.390758434024285</v>
+        <f t="array" ref="E43:F43">[1]!MF_p_pipe_atma(Q_,fw_,C43-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D43)</f>
+        <v>88.400300887103199</v>
       </c>
       <c r="F43" s="5">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G43" s="5">
-        <f t="array" ref="G43:H43">[1]!MF_p_pipe_atma(Q_,fw_,C44,C43,G44,PVRstr1_,theta_,id_,,t1_)</f>
-        <v>33.977396177948087</v>
+        <f t="array" ref="G43:H43">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C43,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D43)</f>
+        <v>88.394991186929218</v>
       </c>
       <c r="H43" s="5">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -3286,22 +3329,24 @@
       </c>
       <c r="C44" s="18">
         <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="D44" s="2"/>
+        <v>960</v>
+      </c>
+      <c r="D44" s="2">
+        <v>54</v>
+      </c>
       <c r="E44" s="5">
-        <f t="array" ref="E44:F44">[1]!MF_p_pipe_atma(Q_,fw_,l0_,C44,p0_,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>34.801504698255421</v>
+        <f t="array" ref="E44:F44">[1]!MF_p_pipe_atma(Q_,fw_,C44-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D44)</f>
+        <v>94.71846602686864</v>
       </c>
       <c r="F44" s="5">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G44" s="5">
-        <f t="array" ref="G44:H44">[1]!MF_p_pipe_atma(Q_,fw_,C45,C44,G45,PVRstr1_,theta_,id_,,t1_)</f>
-        <v>34.395333731340052</v>
+        <f t="array" ref="G44:H44">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C44,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D44)</f>
+        <v>94.718545157823741</v>
       </c>
       <c r="H44" s="5">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -3312,22 +3357,24 @@
       </c>
       <c r="C45" s="18">
         <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="D45" s="2"/>
+        <v>1040</v>
+      </c>
+      <c r="D45" s="2">
+        <v>56</v>
+      </c>
       <c r="E45" s="5">
-        <f t="array" ref="E45:F45">[1]!MF_p_pipe_atma(Q_,fw_,l0_,C45,p0_,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>35.214116872315209</v>
+        <f t="array" ref="E45:F45">[1]!MF_p_pipe_atma(Q_,fw_,C45-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D45)</f>
+        <v>101.20044863612553</v>
       </c>
       <c r="F45" s="5">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G45" s="5">
-        <f t="array" ref="G45:H45">[1]!MF_p_pipe_atma(Q_,fw_,C46,C45,G46,PVRstr1_,theta_,id_,,t1_)</f>
-        <v>34.815221117903782</v>
+        <f t="array" ref="G45:H45">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C45,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D45)</f>
+        <v>101.19776895970331</v>
       </c>
       <c r="H45" s="5">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -3338,22 +3385,24 @@
       </c>
       <c r="C46" s="18">
         <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="D46" s="2"/>
+        <v>1120</v>
+      </c>
+      <c r="D46" s="2">
+        <v>58</v>
+      </c>
       <c r="E46" s="5">
-        <f t="array" ref="E46:F46">[1]!MF_p_pipe_atma(Q_,fw_,l0_,C46,p0_,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>35.628579860740345</v>
+        <f t="array" ref="E46:F46">[1]!MF_p_pipe_atma(Q_,fw_,C46-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D46)</f>
+        <v>107.77982242051218</v>
       </c>
       <c r="F46" s="5">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="G46" s="5">
-        <f t="array" ref="G46:H46">[1]!MF_p_pipe_atma(Q_,fw_,C47,C46,G47,PVRstr1_,theta_,id_,,t1_)</f>
-        <v>35.237041819803338</v>
+        <f t="array" ref="G46:H46">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C46,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D46)</f>
+        <v>107.77982241936763</v>
       </c>
       <c r="H46" s="5">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -3364,22 +3413,24 @@
       </c>
       <c r="C47" s="18">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="D47" s="2"/>
+        <v>1200</v>
+      </c>
+      <c r="D47" s="2">
+        <v>60</v>
+      </c>
       <c r="E47" s="5">
-        <f t="array" ref="E47:F47">[1]!MF_p_pipe_atma(Q_,fw_,l0_,C47,p0_,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>36.044878561661015</v>
+        <f t="array" ref="E47:F47">[1]!MF_p_pipe_atma(Q_,fw_,C47-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D47)</f>
+        <v>114.36031088095525</v>
       </c>
       <c r="F47" s="5">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G47" s="5">
-        <f t="array" ref="G47:H47">[1]!MF_p_pipe_atma(Q_,fw_,C48,C47,G48,PVRstr1_,theta_,id_,,t1_)</f>
-        <v>35.660779311302726</v>
+        <f t="array" ref="G47:H47">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C47,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D47)</f>
+        <v>114.36031088016522</v>
       </c>
       <c r="H47" s="5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -3390,22 +3441,24 @@
       </c>
       <c r="C48" s="18">
         <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="D48" s="2"/>
+        <v>1280</v>
+      </c>
+      <c r="D48" s="2">
+        <v>62</v>
+      </c>
       <c r="E48" s="5">
-        <f t="array" ref="E48:F48">[1]!MF_p_pipe_atma(Q_,fw_,l0_,C48,p0_,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>36.462997870084479</v>
+        <f t="array" ref="E48:F48">[1]!MF_p_pipe_atma(Q_,fw_,C48-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D48)</f>
+        <v>120.93876831770481</v>
       </c>
       <c r="F48" s="5">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="G48" s="5">
-        <f t="array" ref="G48:H48">[1]!MF_p_pipe_atma(Q_,fw_,C49,C48,G49,PVRstr1_,theta_,id_,,t1_)</f>
-        <v>36.0864170627096</v>
+        <f t="array" ref="G48:H48">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C48,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D48)</f>
+        <v>120.93876831705957</v>
       </c>
       <c r="H48" s="5">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -3416,22 +3469,24 @@
       </c>
       <c r="C49" s="18">
         <f t="shared" si="0"/>
-        <v>136</v>
-      </c>
-      <c r="D49" s="2"/>
+        <v>1360</v>
+      </c>
+      <c r="D49" s="2">
+        <v>64</v>
+      </c>
       <c r="E49" s="5">
-        <f t="array" ref="E49:F49">[1]!MF_p_pipe_atma(Q_,fw_,l0_,C49,p0_,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>36.882922681148962</v>
+        <f t="array" ref="E49:F49">[1]!MF_p_pipe_atma(Q_,fw_,C49-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D49)</f>
+        <v>127.51480053516036</v>
       </c>
       <c r="F49" s="5">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G49" s="5">
-        <f t="array" ref="G49:H49">[1]!MF_p_pipe_atma(Q_,fw_,C50,C49,G50,PVRstr1_,theta_,id_,,t1_)</f>
-        <v>36.51393854424358</v>
+        <f t="array" ref="G49:H49">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C49,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D49)</f>
+        <v>127.51480053470623</v>
       </c>
       <c r="H49" s="5">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -3442,22 +3497,24 @@
       </c>
       <c r="C50" s="18">
         <f t="shared" si="0"/>
-        <v>144</v>
-      </c>
-      <c r="D50" s="2"/>
+        <v>1440</v>
+      </c>
+      <c r="D50" s="2">
+        <v>66</v>
+      </c>
       <c r="E50" s="5">
-        <f t="array" ref="E50:F50">[1]!MF_p_pipe_atma(Q_,fw_,l0_,C50,p0_,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>37.304637893304026</v>
+        <f t="array" ref="E50:F50">[1]!MF_p_pipe_atma(Q_,fw_,C50-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D50)</f>
+        <v>134.08807150349355</v>
       </c>
       <c r="F50" s="5">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G50" s="5">
-        <f t="array" ref="G50:H50">[1]!MF_p_pipe_atma(Q_,fw_,C51,C50,G51,PVRstr1_,theta_,id_,,t1_)</f>
-        <v>36.943327229829002</v>
+        <f t="array" ref="G50:H50">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C50,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D50)</f>
+        <v>134.08807150317423</v>
       </c>
       <c r="H50" s="5">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -3468,22 +3525,24 @@
       </c>
       <c r="C51" s="18">
         <f t="shared" si="0"/>
-        <v>152</v>
-      </c>
-      <c r="D51" s="2"/>
+        <v>1520</v>
+      </c>
+      <c r="D51" s="2">
+        <v>68</v>
+      </c>
       <c r="E51" s="5">
-        <f t="array" ref="E51:F51">[1]!MF_p_pipe_atma(Q_,fw_,l0_,C51,p0_,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>37.728128411426916</v>
+        <f t="array" ref="E51:F51">[1]!MF_p_pipe_atma(Q_,fw_,C51-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D51)</f>
+        <v>140.6582923244637</v>
       </c>
       <c r="F51" s="5">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="G51" s="5">
-        <f t="array" ref="G51:H51">[1]!MF_p_pipe_atma(Q_,fw_,C52,C51,G52,PVRstr1_,theta_,id_,,t1_)</f>
-        <v>37.374566600812109</v>
+        <f t="array" ref="G51:H51">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C51,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D51)</f>
+        <v>140.65829232423621</v>
       </c>
       <c r="H51" s="5">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -3494,22 +3553,24 @@
       </c>
       <c r="C52" s="18">
         <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="D52" s="2"/>
+        <v>1600</v>
+      </c>
+      <c r="D52" s="2">
+        <v>70</v>
+      </c>
       <c r="E52" s="5">
-        <f t="array" ref="E52:F52">[1]!MF_p_pipe_atma(Q_,fw_,l0_,C52,p0_,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>38.153379149874759</v>
+        <f t="array" ref="E52:F52">[1]!MF_p_pipe_atma(Q_,fw_,C52-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D52)</f>
+        <v>147.22521269844441</v>
       </c>
       <c r="F52" s="5">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G52" s="5">
-        <f t="array" ref="G52:H52">[1]!MF_p_pipe_atma(Q_,fw_,C53,C52,G53,PVRstr1_,theta_,id_,,t1_)</f>
-        <v>37.807640149602385</v>
+        <f t="array" ref="G52:H52">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C52,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D52)</f>
+        <v>147.22521269829397</v>
       </c>
       <c r="H52" s="5">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -3520,22 +3581,24 @@
       </c>
       <c r="C53" s="18">
         <f t="shared" si="0"/>
-        <v>168</v>
-      </c>
-      <c r="D53" s="2"/>
+        <v>1680</v>
+      </c>
+      <c r="D53" s="2">
+        <v>72</v>
+      </c>
       <c r="E53" s="5">
-        <f t="array" ref="E53:F53">[1]!MF_p_pipe_atma(Q_,fw_,l0_,C53,p0_,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>38.580375035472834</v>
+        <f t="array" ref="E53:F53">[1]!MF_p_pipe_atma(Q_,fw_,C53-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D53)</f>
+        <v>153.78861424206391</v>
       </c>
       <c r="F53" s="5">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G53" s="5">
-        <f t="array" ref="G53:H53">[1]!MF_p_pipe_atma(Q_,fw_,C54,C53,G54,PVRstr1_,theta_,id_,,t1_)</f>
-        <v>38.242531383238109</v>
+        <f t="array" ref="G53:H53">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C53,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D53)</f>
+        <v>153.78861424194838</v>
       </c>
       <c r="H53" s="5">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -3546,22 +3609,24 @@
       </c>
       <c r="C54" s="18">
         <f t="shared" si="0"/>
-        <v>176</v>
-      </c>
-      <c r="D54" s="2"/>
+        <v>1760</v>
+      </c>
+      <c r="D54" s="2">
+        <v>74</v>
+      </c>
       <c r="E54" s="5">
-        <f t="array" ref="E54:F54">[1]!MF_p_pipe_atma(Q_,fw_,l0_,C54,p0_,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>39.009101010438719</v>
+        <f t="array" ref="E54:F54">[1]!MF_p_pipe_atma(Q_,fw_,C54-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D54)</f>
+        <v>160.34830519509865</v>
       </c>
       <c r="F54" s="5">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="G54" s="5">
-        <f t="array" ref="G54:H54">[1]!MF_p_pipe_atma(Q_,fw_,C55,C54,G55,PVRstr1_,theta_,id_,,t1_)</f>
-        <v>38.679223826876097</v>
+        <f t="array" ref="G54:H54">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C54,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D54)</f>
+        <v>160.34830519503925</v>
       </c>
       <c r="H54" s="5">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -3572,22 +3637,24 @@
       </c>
       <c r="C55" s="18">
         <f t="shared" si="0"/>
-        <v>184</v>
-      </c>
-      <c r="D55" s="2"/>
+        <v>1840</v>
+      </c>
+      <c r="D55" s="2">
+        <v>76</v>
+      </c>
       <c r="E55" s="5">
-        <f t="array" ref="E55:F55">[1]!MF_p_pipe_atma(Q_,fw_,l0_,C55,p0_,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>39.439542035242759</v>
+        <f t="array" ref="E55:F55">[1]!MF_p_pipe_atma(Q_,fw_,C55-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D55)</f>
+        <v>166.90411618439927</v>
       </c>
       <c r="F55" s="5">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="G55" s="5">
-        <f t="array" ref="G55:H55">[1]!MF_p_pipe_atma(Q_,fw_,C56,C55,G56,PVRstr1_,theta_,id_,,t1_)</f>
-        <v>39.117701027205506</v>
+        <f t="array" ref="G55:H55">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C55,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D55)</f>
+        <v>166.90411618436983</v>
       </c>
       <c r="H55" s="5">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -3598,22 +3665,24 @@
       </c>
       <c r="C56" s="18">
         <f t="shared" si="0"/>
-        <v>192</v>
-      </c>
-      <c r="D56" s="2"/>
+        <v>1920</v>
+      </c>
+      <c r="D56" s="2">
+        <v>78</v>
+      </c>
       <c r="E56" s="5">
-        <f t="array" ref="E56:F56">[1]!MF_p_pipe_atma(Q_,fw_,l0_,C56,p0_,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>39.871683091404769</v>
+        <f t="array" ref="E56:F56">[1]!MF_p_pipe_atma(Q_,fw_,C56-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D56)</f>
+        <v>173.45589680110075</v>
       </c>
       <c r="F56" s="5">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="G56" s="5">
-        <f t="array" ref="G56:H56">[1]!MF_p_pipe_atma(Q_,fw_,C57,C56,G57,PVRstr1_,theta_,id_,,t1_)</f>
-        <v>39.55794655578584</v>
+        <f t="array" ref="G56:H56">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C56,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D56)</f>
+        <v>173.45589680108833</v>
       </c>
       <c r="H56" s="5">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -3624,23 +3693,25 @@
       </c>
       <c r="C57" s="18">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="D57" s="2"/>
+        <v>2000</v>
+      </c>
+      <c r="D57" s="2">
+        <v>80</v>
+      </c>
       <c r="E57" s="5">
-        <f t="array" ref="E57:F57">[1]!MF_p_pipe_atma(Q_,fw_,l0_,C57,p0_,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>40.305509184227148</v>
+        <f t="array" ref="E57:F57">[1]!MF_p_pipe_atma(Q_,fw_,C57-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D57)</f>
+        <v>180.00351281101069</v>
       </c>
       <c r="F57" s="5">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G57" s="19">
         <f>p1_</f>
-        <v>40</v>
+        <v>180.00351281101069</v>
       </c>
       <c r="H57" s="19">
-        <f>t1_</f>
-        <v>30</v>
+        <f>D57</f>
+        <v>80</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>

--- a/excercises/excercises/50.MF_pipe.xlsx
+++ b/excercises/excercises/50.MF_pipe.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E9B9C1-1007-4015-A959-4D1AF2CB39B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A13EA10-18EF-4586-A3A9-7E21DB2898DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3105" windowWidth="28800" windowHeight="15495" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MF 1 " sheetId="118" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="betta_gas1_" localSheetId="0">'MF 1 '!#REF!</definedName>
@@ -27,7 +28,6 @@
     <definedName name="gamma_gas_" localSheetId="0">'MF 1 '!$C$9</definedName>
     <definedName name="gamma_oil_" localSheetId="0">'MF 1 '!$C$7</definedName>
     <definedName name="gamma_wat_" localSheetId="0">'MF 1 '!$C$8</definedName>
-    <definedName name="Hydr_corr_">'MF 1 '!$H$20</definedName>
     <definedName name="id_">'MF 1 '!$C$21</definedName>
     <definedName name="L_">'MF 1 '!$C$20</definedName>
     <definedName name="l0_">'MF 1 '!$C$32</definedName>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -414,12 +414,6 @@
   </si>
   <si>
     <t>T2</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Корреляция</t>
   </si>
 </sst>
 </file>
@@ -653,7 +647,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -702,9 +696,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -862,79 +853,79 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1280</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1360</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1440</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1520</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1600</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>1680</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1760</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1840</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1920</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2000</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -949,79 +940,79 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.262310185283091</c:v>
+                  <c:v>30.407097263213387</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.775736307509277</c:v>
+                  <c:v>30.816624417097245</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.57163402380889</c:v>
+                  <c:v>31.228567861701428</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.618728194166565</c:v>
+                  <c:v>31.642913861329344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.86925446428738</c:v>
+                  <c:v>32.059648548768756</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59.289030277238687</c:v>
+                  <c:v>32.478757929511218</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.849628389999054</c:v>
+                  <c:v>32.900227885967382</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.527210015451487</c:v>
+                  <c:v>33.324044181665307</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76.306572318863488</c:v>
+                  <c:v>33.750192465440151</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>82.258404106515229</c:v>
+                  <c:v>34.178658275610466</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>88.400300887103199</c:v>
+                  <c:v>34.609427044140247</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>94.71846602686864</c:v>
+                  <c:v>35.042484100785373</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>101.20044863612553</c:v>
+                  <c:v>35.477814677207952</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>107.77982242051218</c:v>
+                  <c:v>35.91540391110707</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>114.36031088095525</c:v>
+                  <c:v>36.355236850329703</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>120.93876831770481</c:v>
+                  <c:v>36.797332947747407</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>127.51480053516036</c:v>
+                  <c:v>37.242669083585966</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>134.08807150349355</c:v>
+                  <c:v>37.690958791121503</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>140.6582923244637</c:v>
+                  <c:v>38.142412205225234</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>147.22521269844441</c:v>
+                  <c:v>38.596716201327666</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>153.78861424206391</c:v>
+                  <c:v>39.05384908463796</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>160.34830519509865</c:v>
+                  <c:v>39.513788942324183</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>166.90411618439927</c:v>
+                  <c:v>39.977019808464313</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>173.45589680110075</c:v>
+                  <c:v>40.443906695583145</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>180.00351281101069</c:v>
+                  <c:v>40.913775559065449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1081,79 +1072,79 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1280</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1360</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1440</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1520</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1600</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>1680</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1760</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1840</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1920</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2000</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1164,83 +1155,8 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>29.999065866311906</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34.259406951170462</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>38.775521091032331</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43.569518258699148</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>48.619352813761793</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>53.868932593215995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>59.284481794013153</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64.849347529621284</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>70.52463436472091</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>76.306781666013563</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>82.258442872925727</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>88.394991186929218</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>94.718545157823741</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>101.19776895970331</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>107.77982241936763</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>114.36031088016522</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>120.93876831705957</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>127.51480053470623</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>134.08807150317423</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>140.65829232423621</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>147.22521269829397</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>153.78861424194838</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>160.34830519503925</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>166.90411618436983</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>173.45589680108833</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>180.00351281101069</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2318,11 +2234,30 @@
     <sheetNames>
       <sheetName val="ESPbase"/>
       <sheetName val="Info"/>
+      <sheetName val="UniflocVBA_7"/>
     </sheetNames>
     <definedNames>
       <definedName name="getUFVersion"/>
+      <definedName name="PVT_encode_string"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="ESPbase"/>
+      <sheetName val="Info"/>
+    </sheetNames>
+    <definedNames>
       <definedName name="MF_p_pipe_atma"/>
-      <definedName name="PVT_encode_string"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2634,8 +2569,8 @@
   </sheetPr>
   <dimension ref="A1:AB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2645,7 +2580,7 @@
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
@@ -2665,7 +2600,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2853,21 +2788,15 @@
       </c>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -2907,9 +2836,8 @@
       <c r="B24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="20">
-        <f>E57</f>
-        <v>180.00351281101069</v>
+      <c r="C24" s="2">
+        <v>40</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>5</v>
@@ -2943,7 +2871,7 @@
       </c>
       <c r="C28" s="16" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -2969,9 +2897,7 @@
       <c r="C31" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>41</v>
-      </c>
+      <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
         <v>35</v>
       </c>
@@ -2994,24 +2920,17 @@
       <c r="C32" s="2">
         <v>0</v>
       </c>
-      <c r="D32" s="2">
-        <v>30</v>
-      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="19">
         <f>p0_</f>
         <v>30</v>
       </c>
       <c r="F32" s="19">
-        <f>D32</f>
-        <v>30</v>
-      </c>
-      <c r="G32" s="5">
-        <f t="array" ref="G32:H32">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C32,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D32)</f>
-        <v>29.999065866311906</v>
-      </c>
-      <c r="H32" s="5">
-        <v>30</v>
-      </c>
+        <f>t0_</f>
+        <v>40</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
@@ -3021,25 +2940,18 @@
       </c>
       <c r="C33" s="18">
         <f t="shared" ref="C33:C57" si="0">C32+L_/(n_-1)</f>
-        <v>80</v>
-      </c>
-      <c r="D33" s="2">
-        <v>32</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <f t="array" ref="E33:F33">[1]!MF_p_pipe_atma(Q_,fw_,C33-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D33)</f>
-        <v>34.262310185283091</v>
+        <f t="array" ref="E33:F33">[2]!MF_p_pipe_atma(Q_,fw_,C33-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <v>30.407097263213387</v>
       </c>
       <c r="F33" s="5">
-        <v>32</v>
-      </c>
-      <c r="G33" s="5">
-        <f t="array" ref="G33:H33">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C33,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D33)</f>
-        <v>34.259406951170462</v>
-      </c>
-      <c r="H33" s="5">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
@@ -3049,25 +2961,18 @@
       </c>
       <c r="C34" s="18">
         <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="D34" s="2">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <f t="array" ref="E34:F34">[1]!MF_p_pipe_atma(Q_,fw_,C34-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D34)</f>
-        <v>38.775736307509277</v>
+        <f t="array" ref="E34:F34">[2]!MF_p_pipe_atma(Q_,fw_,C34-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <v>30.816624417097245</v>
       </c>
       <c r="F34" s="5">
-        <v>34</v>
-      </c>
-      <c r="G34" s="5">
-        <f t="array" ref="G34:H34">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C34,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D34)</f>
-        <v>38.775521091032331</v>
-      </c>
-      <c r="H34" s="5">
-        <v>34</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
@@ -3077,25 +2982,18 @@
       </c>
       <c r="C35" s="18">
         <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="D35" s="2">
-        <v>36</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <f t="array" ref="E35:F35">[1]!MF_p_pipe_atma(Q_,fw_,C35-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D35)</f>
-        <v>43.57163402380889</v>
+        <f t="array" ref="E35:F35">[2]!MF_p_pipe_atma(Q_,fw_,C35-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <v>31.228567861701428</v>
       </c>
       <c r="F35" s="5">
-        <v>36</v>
-      </c>
-      <c r="G35" s="5">
-        <f t="array" ref="G35:H35">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C35,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D35)</f>
-        <v>43.569518258699148</v>
-      </c>
-      <c r="H35" s="5">
-        <v>36</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
@@ -3105,25 +3003,18 @@
       </c>
       <c r="C36" s="18">
         <f t="shared" si="0"/>
-        <v>320</v>
-      </c>
-      <c r="D36" s="2">
-        <v>38</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <f t="array" ref="E36:F36">[1]!MF_p_pipe_atma(Q_,fw_,C36-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D36)</f>
-        <v>48.618728194166565</v>
+        <f t="array" ref="E36:F36">[2]!MF_p_pipe_atma(Q_,fw_,C36-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <v>31.642913861329344</v>
       </c>
       <c r="F36" s="5">
-        <v>38</v>
-      </c>
-      <c r="G36" s="5">
-        <f t="array" ref="G36:H36">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C36,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D36)</f>
-        <v>48.619352813761793</v>
-      </c>
-      <c r="H36" s="5">
-        <v>38</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
@@ -3133,25 +3024,18 @@
       </c>
       <c r="C37" s="18">
         <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="D37" s="2">
         <v>40</v>
       </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <f t="array" ref="E37:F37">[1]!MF_p_pipe_atma(Q_,fw_,C37-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D37)</f>
-        <v>53.86925446428738</v>
+        <f t="array" ref="E37:F37">[2]!MF_p_pipe_atma(Q_,fw_,C37-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <v>32.059648548768756</v>
       </c>
       <c r="F37" s="5">
         <v>40</v>
       </c>
-      <c r="G37" s="5">
-        <f t="array" ref="G37:H37">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C37,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D37)</f>
-        <v>53.868932593215995</v>
-      </c>
-      <c r="H37" s="5">
-        <v>40</v>
-      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
@@ -3161,25 +3045,18 @@
       </c>
       <c r="C38" s="18">
         <f t="shared" si="0"/>
-        <v>480</v>
-      </c>
-      <c r="D38" s="2">
-        <v>42</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <f t="array" ref="E38:F38">[1]!MF_p_pipe_atma(Q_,fw_,C38-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D38)</f>
-        <v>59.289030277238687</v>
+        <f t="array" ref="E38:F38">[2]!MF_p_pipe_atma(Q_,fw_,C38-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <v>32.478757929511218</v>
       </c>
       <c r="F38" s="5">
-        <v>42</v>
-      </c>
-      <c r="G38" s="5">
-        <f t="array" ref="G38:H38">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C38,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D38)</f>
-        <v>59.284481794013153</v>
-      </c>
-      <c r="H38" s="5">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
@@ -3189,25 +3066,18 @@
       </c>
       <c r="C39" s="18">
         <f t="shared" si="0"/>
-        <v>560</v>
-      </c>
-      <c r="D39" s="2">
-        <v>44</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="5">
-        <f t="array" ref="E39:F39">[1]!MF_p_pipe_atma(Q_,fw_,C39-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D39)</f>
-        <v>64.849628389999054</v>
+        <f t="array" ref="E39:F39">[2]!MF_p_pipe_atma(Q_,fw_,C39-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <v>32.900227885967382</v>
       </c>
       <c r="F39" s="5">
-        <v>44</v>
-      </c>
-      <c r="G39" s="5">
-        <f t="array" ref="G39:H39">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C39,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D39)</f>
-        <v>64.849347529621284</v>
-      </c>
-      <c r="H39" s="5">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
@@ -3217,25 +3087,18 @@
       </c>
       <c r="C40" s="18">
         <f t="shared" si="0"/>
-        <v>640</v>
-      </c>
-      <c r="D40" s="2">
-        <v>46</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="5">
-        <f t="array" ref="E40:F40">[1]!MF_p_pipe_atma(Q_,fw_,C40-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D40)</f>
-        <v>70.527210015451487</v>
+        <f t="array" ref="E40:F40">[2]!MF_p_pipe_atma(Q_,fw_,C40-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <v>33.324044181665307</v>
       </c>
       <c r="F40" s="5">
-        <v>46</v>
-      </c>
-      <c r="G40" s="5">
-        <f t="array" ref="G40:H40">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C40,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D40)</f>
-        <v>70.52463436472091</v>
-      </c>
-      <c r="H40" s="5">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
     </row>
@@ -3245,25 +3108,18 @@
       </c>
       <c r="C41" s="18">
         <f t="shared" si="0"/>
-        <v>720</v>
-      </c>
-      <c r="D41" s="2">
-        <v>48</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <f t="array" ref="E41:F41">[1]!MF_p_pipe_atma(Q_,fw_,C41-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D41)</f>
-        <v>76.306572318863488</v>
+        <f t="array" ref="E41:F41">[2]!MF_p_pipe_atma(Q_,fw_,C41-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <v>33.750192465440151</v>
       </c>
       <c r="F41" s="5">
-        <v>48</v>
-      </c>
-      <c r="G41" s="5">
-        <f t="array" ref="G41:H41">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C41,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D41)</f>
-        <v>76.306781666013563</v>
-      </c>
-      <c r="H41" s="5">
-        <v>48</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
@@ -3273,25 +3129,18 @@
       </c>
       <c r="C42" s="18">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="D42" s="2">
-        <v>50</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <f t="array" ref="E42:F42">[1]!MF_p_pipe_atma(Q_,fw_,C42-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D42)</f>
-        <v>82.258404106515229</v>
+        <f t="array" ref="E42:F42">[2]!MF_p_pipe_atma(Q_,fw_,C42-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <v>34.178658275610466</v>
       </c>
       <c r="F42" s="5">
-        <v>50</v>
-      </c>
-      <c r="G42" s="5">
-        <f t="array" ref="G42:H42">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C42,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D42)</f>
-        <v>82.258442872925727</v>
-      </c>
-      <c r="H42" s="5">
-        <v>50</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
@@ -3301,25 +3150,18 @@
       </c>
       <c r="C43" s="18">
         <f t="shared" si="0"/>
-        <v>880</v>
-      </c>
-      <c r="D43" s="2">
-        <v>52</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <f t="array" ref="E43:F43">[1]!MF_p_pipe_atma(Q_,fw_,C43-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D43)</f>
-        <v>88.400300887103199</v>
+        <f t="array" ref="E43:F43">[2]!MF_p_pipe_atma(Q_,fw_,C43-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <v>34.609427044140247</v>
       </c>
       <c r="F43" s="5">
-        <v>52</v>
-      </c>
-      <c r="G43" s="5">
-        <f t="array" ref="G43:H43">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C43,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D43)</f>
-        <v>88.394991186929218</v>
-      </c>
-      <c r="H43" s="5">
-        <v>52</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
@@ -3329,25 +3171,18 @@
       </c>
       <c r="C44" s="18">
         <f t="shared" si="0"/>
-        <v>960</v>
-      </c>
-      <c r="D44" s="2">
-        <v>54</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <f t="array" ref="E44:F44">[1]!MF_p_pipe_atma(Q_,fw_,C44-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D44)</f>
-        <v>94.71846602686864</v>
+        <f t="array" ref="E44:F44">[2]!MF_p_pipe_atma(Q_,fw_,C44-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <v>35.042484100785373</v>
       </c>
       <c r="F44" s="5">
-        <v>54</v>
-      </c>
-      <c r="G44" s="5">
-        <f t="array" ref="G44:H44">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C44,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D44)</f>
-        <v>94.718545157823741</v>
-      </c>
-      <c r="H44" s="5">
-        <v>54</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
     </row>
@@ -3357,25 +3192,18 @@
       </c>
       <c r="C45" s="18">
         <f t="shared" si="0"/>
-        <v>1040</v>
-      </c>
-      <c r="D45" s="2">
-        <v>56</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <f t="array" ref="E45:F45">[1]!MF_p_pipe_atma(Q_,fw_,C45-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D45)</f>
-        <v>101.20044863612553</v>
+        <f t="array" ref="E45:F45">[2]!MF_p_pipe_atma(Q_,fw_,C45-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <v>35.477814677207952</v>
       </c>
       <c r="F45" s="5">
-        <v>56</v>
-      </c>
-      <c r="G45" s="5">
-        <f t="array" ref="G45:H45">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C45,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D45)</f>
-        <v>101.19776895970331</v>
-      </c>
-      <c r="H45" s="5">
-        <v>56</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
@@ -3385,25 +3213,18 @@
       </c>
       <c r="C46" s="18">
         <f t="shared" si="0"/>
-        <v>1120</v>
-      </c>
-      <c r="D46" s="2">
-        <v>58</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <f t="array" ref="E46:F46">[1]!MF_p_pipe_atma(Q_,fw_,C46-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D46)</f>
-        <v>107.77982242051218</v>
+        <f t="array" ref="E46:F46">[2]!MF_p_pipe_atma(Q_,fw_,C46-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <v>35.91540391110707</v>
       </c>
       <c r="F46" s="5">
-        <v>58</v>
-      </c>
-      <c r="G46" s="5">
-        <f t="array" ref="G46:H46">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C46,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D46)</f>
-        <v>107.77982241936763</v>
-      </c>
-      <c r="H46" s="5">
-        <v>58</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
@@ -3413,25 +3234,18 @@
       </c>
       <c r="C47" s="18">
         <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="D47" s="2">
-        <v>60</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <f t="array" ref="E47:F47">[1]!MF_p_pipe_atma(Q_,fw_,C47-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D47)</f>
-        <v>114.36031088095525</v>
+        <f t="array" ref="E47:F47">[2]!MF_p_pipe_atma(Q_,fw_,C47-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <v>36.355236850329703</v>
       </c>
       <c r="F47" s="5">
-        <v>60</v>
-      </c>
-      <c r="G47" s="5">
-        <f t="array" ref="G47:H47">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C47,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D47)</f>
-        <v>114.36031088016522</v>
-      </c>
-      <c r="H47" s="5">
-        <v>60</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
@@ -3441,25 +3255,18 @@
       </c>
       <c r="C48" s="18">
         <f t="shared" si="0"/>
-        <v>1280</v>
-      </c>
-      <c r="D48" s="2">
-        <v>62</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <f t="array" ref="E48:F48">[1]!MF_p_pipe_atma(Q_,fw_,C48-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D48)</f>
-        <v>120.93876831770481</v>
+        <f t="array" ref="E48:F48">[2]!MF_p_pipe_atma(Q_,fw_,C48-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <v>36.797332947747407</v>
       </c>
       <c r="F48" s="5">
-        <v>62</v>
-      </c>
-      <c r="G48" s="5">
-        <f t="array" ref="G48:H48">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C48,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D48)</f>
-        <v>120.93876831705957</v>
-      </c>
-      <c r="H48" s="5">
-        <v>62</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
@@ -3469,25 +3276,18 @@
       </c>
       <c r="C49" s="18">
         <f t="shared" si="0"/>
-        <v>1360</v>
-      </c>
-      <c r="D49" s="2">
-        <v>64</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <f t="array" ref="E49:F49">[1]!MF_p_pipe_atma(Q_,fw_,C49-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D49)</f>
-        <v>127.51480053516036</v>
+        <f t="array" ref="E49:F49">[2]!MF_p_pipe_atma(Q_,fw_,C49-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <v>37.242669083585966</v>
       </c>
       <c r="F49" s="5">
-        <v>64</v>
-      </c>
-      <c r="G49" s="5">
-        <f t="array" ref="G49:H49">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C49,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D49)</f>
-        <v>127.51480053470623</v>
-      </c>
-      <c r="H49" s="5">
-        <v>64</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
@@ -3497,25 +3297,18 @@
       </c>
       <c r="C50" s="18">
         <f t="shared" si="0"/>
-        <v>1440</v>
-      </c>
-      <c r="D50" s="2">
-        <v>66</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <f t="array" ref="E50:F50">[1]!MF_p_pipe_atma(Q_,fw_,C50-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D50)</f>
-        <v>134.08807150349355</v>
+        <f t="array" ref="E50:F50">[2]!MF_p_pipe_atma(Q_,fw_,C50-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <v>37.690958791121503</v>
       </c>
       <c r="F50" s="5">
-        <v>66</v>
-      </c>
-      <c r="G50" s="5">
-        <f t="array" ref="G50:H50">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C50,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D50)</f>
-        <v>134.08807150317423</v>
-      </c>
-      <c r="H50" s="5">
-        <v>66</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
@@ -3525,25 +3318,18 @@
       </c>
       <c r="C51" s="18">
         <f t="shared" si="0"/>
-        <v>1520</v>
-      </c>
-      <c r="D51" s="2">
-        <v>68</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <f t="array" ref="E51:F51">[1]!MF_p_pipe_atma(Q_,fw_,C51-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D51)</f>
-        <v>140.6582923244637</v>
+        <f t="array" ref="E51:F51">[2]!MF_p_pipe_atma(Q_,fw_,C51-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <v>38.142412205225234</v>
       </c>
       <c r="F51" s="5">
-        <v>68</v>
-      </c>
-      <c r="G51" s="5">
-        <f t="array" ref="G51:H51">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C51,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D51)</f>
-        <v>140.65829232423621</v>
-      </c>
-      <c r="H51" s="5">
-        <v>68</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
@@ -3553,25 +3339,18 @@
       </c>
       <c r="C52" s="18">
         <f t="shared" si="0"/>
-        <v>1600</v>
-      </c>
-      <c r="D52" s="2">
-        <v>70</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <f t="array" ref="E52:F52">[1]!MF_p_pipe_atma(Q_,fw_,C52-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D52)</f>
-        <v>147.22521269844441</v>
+        <f t="array" ref="E52:F52">[2]!MF_p_pipe_atma(Q_,fw_,C52-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <v>38.596716201327666</v>
       </c>
       <c r="F52" s="5">
-        <v>70</v>
-      </c>
-      <c r="G52" s="5">
-        <f t="array" ref="G52:H52">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C52,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D52)</f>
-        <v>147.22521269829397</v>
-      </c>
-      <c r="H52" s="5">
-        <v>70</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
@@ -3581,25 +3360,18 @@
       </c>
       <c r="C53" s="18">
         <f t="shared" si="0"/>
-        <v>1680</v>
-      </c>
-      <c r="D53" s="2">
-        <v>72</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="D53" s="2"/>
       <c r="E53" s="5">
-        <f t="array" ref="E53:F53">[1]!MF_p_pipe_atma(Q_,fw_,C53-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D53)</f>
-        <v>153.78861424206391</v>
+        <f t="array" ref="E53:F53">[2]!MF_p_pipe_atma(Q_,fw_,C53-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <v>39.05384908463796</v>
       </c>
       <c r="F53" s="5">
-        <v>72</v>
-      </c>
-      <c r="G53" s="5">
-        <f t="array" ref="G53:H53">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C53,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D53)</f>
-        <v>153.78861424194838</v>
-      </c>
-      <c r="H53" s="5">
-        <v>72</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
@@ -3609,25 +3381,18 @@
       </c>
       <c r="C54" s="18">
         <f t="shared" si="0"/>
-        <v>1760</v>
-      </c>
-      <c r="D54" s="2">
-        <v>74</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <f t="array" ref="E54:F54">[1]!MF_p_pipe_atma(Q_,fw_,C54-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D54)</f>
-        <v>160.34830519509865</v>
+        <f t="array" ref="E54:F54">[2]!MF_p_pipe_atma(Q_,fw_,C54-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <v>39.513788942324183</v>
       </c>
       <c r="F54" s="5">
-        <v>74</v>
-      </c>
-      <c r="G54" s="5">
-        <f t="array" ref="G54:H54">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C54,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D54)</f>
-        <v>160.34830519503925</v>
-      </c>
-      <c r="H54" s="5">
-        <v>74</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
     </row>
@@ -3637,25 +3402,18 @@
       </c>
       <c r="C55" s="18">
         <f t="shared" si="0"/>
-        <v>1840</v>
-      </c>
-      <c r="D55" s="2">
-        <v>76</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <f t="array" ref="E55:F55">[1]!MF_p_pipe_atma(Q_,fw_,C55-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D55)</f>
-        <v>166.90411618439927</v>
+        <f t="array" ref="E55:F55">[2]!MF_p_pipe_atma(Q_,fw_,C55-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <v>39.977019808464313</v>
       </c>
       <c r="F55" s="5">
-        <v>76</v>
-      </c>
-      <c r="G55" s="5">
-        <f t="array" ref="G55:H55">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C55,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D55)</f>
-        <v>166.90411618436983</v>
-      </c>
-      <c r="H55" s="5">
-        <v>76</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
     </row>
@@ -3665,25 +3423,18 @@
       </c>
       <c r="C56" s="18">
         <f t="shared" si="0"/>
-        <v>1920</v>
-      </c>
-      <c r="D56" s="2">
-        <v>78</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <f t="array" ref="E56:F56">[1]!MF_p_pipe_atma(Q_,fw_,C56-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D56)</f>
-        <v>173.45589680110075</v>
+        <f t="array" ref="E56:F56">[2]!MF_p_pipe_atma(Q_,fw_,C56-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <v>40.443906695583145</v>
       </c>
       <c r="F56" s="5">
-        <v>78</v>
-      </c>
-      <c r="G56" s="5">
-        <f t="array" ref="G56:H56">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C56,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D56)</f>
-        <v>173.45589680108833</v>
-      </c>
-      <c r="H56" s="5">
-        <v>78</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
     </row>
@@ -3693,25 +3444,23 @@
       </c>
       <c r="C57" s="18">
         <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="D57" s="2">
-        <v>80</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="D57" s="2"/>
       <c r="E57" s="5">
-        <f t="array" ref="E57:F57">[1]!MF_p_pipe_atma(Q_,fw_,C57-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D57)</f>
-        <v>180.00351281101069</v>
+        <f t="array" ref="E57:F57">[2]!MF_p_pipe_atma(Q_,fw_,C57-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <v>40.913775559065449</v>
       </c>
       <c r="F57" s="5">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G57" s="19">
         <f>p1_</f>
-        <v>180.00351281101069</v>
+        <v>40</v>
       </c>
       <c r="H57" s="19">
-        <f>D57</f>
-        <v>80</v>
+        <f>t1_</f>
+        <v>30</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>

--- a/excercises/excercises/50.MF_pipe.xlsx
+++ b/excercises/excercises/50.MF_pipe.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A13EA10-18EF-4586-A3A9-7E21DB2898DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFD054D-CF6A-4CB9-B757-6E0D1C9A4CCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3105" windowWidth="28800" windowHeight="15495" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MF 1 " sheetId="118" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="betta_gas1_" localSheetId="0">'MF 1 '!#REF!</definedName>
@@ -2234,30 +2233,11 @@
     <sheetNames>
       <sheetName val="ESPbase"/>
       <sheetName val="Info"/>
-      <sheetName val="UniflocVBA_7"/>
     </sheetNames>
     <definedNames>
       <definedName name="getUFVersion"/>
+      <definedName name="MF_p_pipe_atma"/>
       <definedName name="PVT_encode_string"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ESPbase"/>
-      <sheetName val="Info"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="MF_p_pipe_atma"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2569,8 +2549,8 @@
   </sheetPr>
   <dimension ref="A1:AB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2600,7 +2580,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.8</v>
+        <v>7.10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2871,7 +2851,7 @@
       </c>
       <c r="C28" s="16" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -2944,7 +2924,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <f t="array" ref="E33:F33">[2]!MF_p_pipe_atma(Q_,fw_,C33-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="E33:F33">[1]!MF_p_pipe_atma(Q_,fw_,C33-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
         <v>30.407097263213387</v>
       </c>
       <c r="F33" s="5">
@@ -2965,7 +2945,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <f t="array" ref="E34:F34">[2]!MF_p_pipe_atma(Q_,fw_,C34-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="E34:F34">[1]!MF_p_pipe_atma(Q_,fw_,C34-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
         <v>30.816624417097245</v>
       </c>
       <c r="F34" s="5">
@@ -2986,7 +2966,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <f t="array" ref="E35:F35">[2]!MF_p_pipe_atma(Q_,fw_,C35-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="E35:F35">[1]!MF_p_pipe_atma(Q_,fw_,C35-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
         <v>31.228567861701428</v>
       </c>
       <c r="F35" s="5">
@@ -3007,7 +2987,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <f t="array" ref="E36:F36">[2]!MF_p_pipe_atma(Q_,fw_,C36-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="E36:F36">[1]!MF_p_pipe_atma(Q_,fw_,C36-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
         <v>31.642913861329344</v>
       </c>
       <c r="F36" s="5">
@@ -3028,7 +3008,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <f t="array" ref="E37:F37">[2]!MF_p_pipe_atma(Q_,fw_,C37-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="E37:F37">[1]!MF_p_pipe_atma(Q_,fw_,C37-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
         <v>32.059648548768756</v>
       </c>
       <c r="F37" s="5">
@@ -3049,7 +3029,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <f t="array" ref="E38:F38">[2]!MF_p_pipe_atma(Q_,fw_,C38-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="E38:F38">[1]!MF_p_pipe_atma(Q_,fw_,C38-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
         <v>32.478757929511218</v>
       </c>
       <c r="F38" s="5">
@@ -3070,7 +3050,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="5">
-        <f t="array" ref="E39:F39">[2]!MF_p_pipe_atma(Q_,fw_,C39-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="E39:F39">[1]!MF_p_pipe_atma(Q_,fw_,C39-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
         <v>32.900227885967382</v>
       </c>
       <c r="F39" s="5">
@@ -3091,7 +3071,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="5">
-        <f t="array" ref="E40:F40">[2]!MF_p_pipe_atma(Q_,fw_,C40-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="E40:F40">[1]!MF_p_pipe_atma(Q_,fw_,C40-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
         <v>33.324044181665307</v>
       </c>
       <c r="F40" s="5">
@@ -3112,7 +3092,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <f t="array" ref="E41:F41">[2]!MF_p_pipe_atma(Q_,fw_,C41-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="E41:F41">[1]!MF_p_pipe_atma(Q_,fw_,C41-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
         <v>33.750192465440151</v>
       </c>
       <c r="F41" s="5">
@@ -3133,7 +3113,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <f t="array" ref="E42:F42">[2]!MF_p_pipe_atma(Q_,fw_,C42-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="E42:F42">[1]!MF_p_pipe_atma(Q_,fw_,C42-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
         <v>34.178658275610466</v>
       </c>
       <c r="F42" s="5">
@@ -3154,7 +3134,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <f t="array" ref="E43:F43">[2]!MF_p_pipe_atma(Q_,fw_,C43-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="E43:F43">[1]!MF_p_pipe_atma(Q_,fw_,C43-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
         <v>34.609427044140247</v>
       </c>
       <c r="F43" s="5">
@@ -3175,7 +3155,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <f t="array" ref="E44:F44">[2]!MF_p_pipe_atma(Q_,fw_,C44-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="E44:F44">[1]!MF_p_pipe_atma(Q_,fw_,C44-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
         <v>35.042484100785373</v>
       </c>
       <c r="F44" s="5">
@@ -3196,7 +3176,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <f t="array" ref="E45:F45">[2]!MF_p_pipe_atma(Q_,fw_,C45-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="E45:F45">[1]!MF_p_pipe_atma(Q_,fw_,C45-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
         <v>35.477814677207952</v>
       </c>
       <c r="F45" s="5">
@@ -3217,7 +3197,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <f t="array" ref="E46:F46">[2]!MF_p_pipe_atma(Q_,fw_,C46-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="E46:F46">[1]!MF_p_pipe_atma(Q_,fw_,C46-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
         <v>35.91540391110707</v>
       </c>
       <c r="F46" s="5">
@@ -3238,7 +3218,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <f t="array" ref="E47:F47">[2]!MF_p_pipe_atma(Q_,fw_,C47-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="E47:F47">[1]!MF_p_pipe_atma(Q_,fw_,C47-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
         <v>36.355236850329703</v>
       </c>
       <c r="F47" s="5">
@@ -3259,7 +3239,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <f t="array" ref="E48:F48">[2]!MF_p_pipe_atma(Q_,fw_,C48-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="E48:F48">[1]!MF_p_pipe_atma(Q_,fw_,C48-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
         <v>36.797332947747407</v>
       </c>
       <c r="F48" s="5">
@@ -3280,7 +3260,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <f t="array" ref="E49:F49">[2]!MF_p_pipe_atma(Q_,fw_,C49-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="E49:F49">[1]!MF_p_pipe_atma(Q_,fw_,C49-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
         <v>37.242669083585966</v>
       </c>
       <c r="F49" s="5">
@@ -3301,7 +3281,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <f t="array" ref="E50:F50">[2]!MF_p_pipe_atma(Q_,fw_,C50-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="E50:F50">[1]!MF_p_pipe_atma(Q_,fw_,C50-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
         <v>37.690958791121503</v>
       </c>
       <c r="F50" s="5">
@@ -3322,7 +3302,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <f t="array" ref="E51:F51">[2]!MF_p_pipe_atma(Q_,fw_,C51-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="E51:F51">[1]!MF_p_pipe_atma(Q_,fw_,C51-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
         <v>38.142412205225234</v>
       </c>
       <c r="F51" s="5">
@@ -3343,7 +3323,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <f t="array" ref="E52:F52">[2]!MF_p_pipe_atma(Q_,fw_,C52-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="E52:F52">[1]!MF_p_pipe_atma(Q_,fw_,C52-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
         <v>38.596716201327666</v>
       </c>
       <c r="F52" s="5">
@@ -3364,7 +3344,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="5">
-        <f t="array" ref="E53:F53">[2]!MF_p_pipe_atma(Q_,fw_,C53-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="E53:F53">[1]!MF_p_pipe_atma(Q_,fw_,C53-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
         <v>39.05384908463796</v>
       </c>
       <c r="F53" s="5">
@@ -3385,7 +3365,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <f t="array" ref="E54:F54">[2]!MF_p_pipe_atma(Q_,fw_,C54-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="E54:F54">[1]!MF_p_pipe_atma(Q_,fw_,C54-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
         <v>39.513788942324183</v>
       </c>
       <c r="F54" s="5">
@@ -3406,7 +3386,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <f t="array" ref="E55:F55">[2]!MF_p_pipe_atma(Q_,fw_,C55-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="E55:F55">[1]!MF_p_pipe_atma(Q_,fw_,C55-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
         <v>39.977019808464313</v>
       </c>
       <c r="F55" s="5">
@@ -3427,7 +3407,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <f t="array" ref="E56:F56">[2]!MF_p_pipe_atma(Q_,fw_,C56-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="E56:F56">[1]!MF_p_pipe_atma(Q_,fw_,C56-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
         <v>40.443906695583145</v>
       </c>
       <c r="F56" s="5">
@@ -3448,7 +3428,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="5">
-        <f t="array" ref="E57:F57">[2]!MF_p_pipe_atma(Q_,fw_,C57-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="E57:F57">[1]!MF_p_pipe_atma(Q_,fw_,C57-l0_,$E$32,0,PVRstr1_,theta_,id_,,t0_)</f>
         <v>40.913775559065449</v>
       </c>
       <c r="F57" s="5">
